--- a/Data Files/Input Validation/71. relatepartybranch/Auto_RelatePartyBranch_C13.xlsx
+++ b/Data Files/Input Validation/71. relatepartybranch/Auto_RelatePartyBranch_C13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEE73E5-3B52-4E2D-AA42-22B55475BCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7312CBC8-84BC-4E20-87D6-1BDA19BF88BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <t>ou5kjantjhjas214</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -331,9 +331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,7 +371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -477,7 +477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/71. relatepartybranch/Auto_RelatePartyBranch_C13.xlsx
+++ b/Data Files/Input Validation/71. relatepartybranch/Auto_RelatePartyBranch_C13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7312CBC8-84BC-4E20-87D6-1BDA19BF88BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB10B0B-2358-42FF-B82C-168E3BCD4D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <t>ou5kjantjhjas214</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/71. relatepartybranch/Auto_RelatePartyBranch_C13.xlsx
+++ b/Data Files/Input Validation/71. relatepartybranch/Auto_RelatePartyBranch_C13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB10B0B-2358-42FF-B82C-168E3BCD4D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAB5BA0-F735-4CB4-B022-B46FA72B5B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <t>ou5kjantjhjas214</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
